--- a/1999/v-value-of-property-loss-1999.xlsx
+++ b/1999/v-value-of-property-loss-1999.xlsx
@@ -69,6 +69,18 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Offenses</t>
+  </si>
+  <si>
+    <t>Number of Property Descriptions</t>
+  </si>
+  <si>
+    <t>Value Stolen</t>
+  </si>
+  <si>
+    <t>Bribery</t>
+  </si>
+  <si>
     <t>Type of Property</t>
   </si>
   <si>
@@ -93,72 +105,126 @@
     <t>Aircraft</t>
   </si>
   <si>
+    <t>Embezzlement</t>
+  </si>
+  <si>
     <t>Alcohol</t>
   </si>
   <si>
     <t>Automobiles</t>
   </si>
   <si>
+    <t>Extortion/Blackmail</t>
+  </si>
+  <si>
     <t>Bicycles</t>
   </si>
   <si>
+    <t>False Pretense/Swindle/Confidence Game</t>
+  </si>
+  <si>
+    <t>Credit Card/ATM Fraud</t>
+  </si>
+  <si>
     <t>Buses</t>
   </si>
   <si>
+    <t>Impersonation</t>
+  </si>
+  <si>
     <t>Clothing/Furs</t>
   </si>
   <si>
+    <t>Welfare Fraud</t>
+  </si>
+  <si>
     <t>Computer Hardware/Software</t>
   </si>
   <si>
+    <t>Wire Fraud</t>
+  </si>
+  <si>
     <t>Consumable Goods</t>
   </si>
   <si>
+    <t>Total Fraud</t>
+  </si>
+  <si>
     <t>Credit/Debit Cards</t>
   </si>
   <si>
     <t>Drugs/Narcotics</t>
   </si>
   <si>
+    <t>Kidnaping/Abduction</t>
+  </si>
+  <si>
     <t>Drug/Narcotic Equipment</t>
   </si>
   <si>
     <t>Farm Equipment</t>
   </si>
   <si>
+    <t>Pocket-Picking</t>
+  </si>
+  <si>
     <t>Firearms</t>
   </si>
   <si>
+    <t>Purse-Snatching</t>
+  </si>
+  <si>
     <t>Gambling Equipment</t>
   </si>
   <si>
+    <t>Shoplifting</t>
+  </si>
+  <si>
     <t>Heavy Construction/Industrial Equipment</t>
   </si>
   <si>
+    <t>Theft From Building</t>
+  </si>
+  <si>
     <t>Household Goods</t>
   </si>
   <si>
     <t>Jewelry/Precious Metals</t>
   </si>
   <si>
+    <t>Theft From Coin-Operated Machine</t>
+  </si>
+  <si>
     <t>Livestock</t>
   </si>
   <si>
+    <t>Theft From Motor Vehicle</t>
+  </si>
+  <si>
     <t>Merchandise</t>
   </si>
   <si>
     <t>Money</t>
   </si>
   <si>
+    <t>Theft of Motor Vehicle Parts/Accessories</t>
+  </si>
+  <si>
     <t>Negotiable Instruments</t>
   </si>
   <si>
+    <t>All Other Larceny</t>
+  </si>
+  <si>
     <t>Nonnegotiable Instruments</t>
   </si>
   <si>
     <t>Office-type Equipment</t>
   </si>
   <si>
+    <t>Total Larceny</t>
+  </si>
+  <si>
     <t>Other Motor Vehicles</t>
   </si>
   <si>
@@ -183,127 +249,58 @@
     <t>Structures-Other Commercial/Business</t>
   </si>
   <si>
+    <t>Motor Vehicle Theft</t>
+  </si>
+  <si>
     <t>Structures-Industrial/ Manufacturing</t>
   </si>
   <si>
     <t>Structures-Public/Community</t>
   </si>
   <si>
+    <t>Robbery</t>
+  </si>
+  <si>
     <t>Structures-Storage</t>
   </si>
   <si>
     <t>Structures-Other</t>
   </si>
   <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>Tools</t>
   </si>
   <si>
     <t>Trucks</t>
   </si>
   <si>
+    <t>$200 and Over</t>
+  </si>
+  <si>
     <t>Vehicle Part/Accessories</t>
   </si>
   <si>
+    <t>$50 to $200</t>
+  </si>
+  <si>
     <t>Watercraft</t>
   </si>
   <si>
+    <t>Under $50</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Total Larceny/Theft</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>$12,502*</t>
-  </si>
-  <si>
-    <t>*Does not include arson offenses - see page 39 for arson loss</t>
-  </si>
-  <si>
-    <t>Offenses</t>
-  </si>
-  <si>
-    <t>Number of Property Descriptions</t>
-  </si>
-  <si>
-    <t>Value Stolen</t>
-  </si>
-  <si>
-    <t>Bribery</t>
-  </si>
-  <si>
-    <t>Embezzlement</t>
-  </si>
-  <si>
-    <t>Extortion/Blackmail</t>
-  </si>
-  <si>
-    <t>False Pretense/Swindle/Confidence Game</t>
-  </si>
-  <si>
-    <t>Credit Card/ATM Fraud</t>
-  </si>
-  <si>
-    <t>Impersonation</t>
-  </si>
-  <si>
-    <t>Welfare Fraud</t>
-  </si>
-  <si>
-    <t>Wire Fraud</t>
-  </si>
-  <si>
-    <t>Total Fraud</t>
-  </si>
-  <si>
-    <t>Kidnaping/Abduction</t>
-  </si>
-  <si>
-    <t>Pocket-Picking</t>
-  </si>
-  <si>
-    <t>Purse-Snatching</t>
-  </si>
-  <si>
-    <t>Shoplifting</t>
-  </si>
-  <si>
-    <t>Theft From Building</t>
-  </si>
-  <si>
-    <t>Theft From Coin-Operated Machine</t>
-  </si>
-  <si>
-    <t>Theft From Motor Vehicle</t>
-  </si>
-  <si>
-    <t>Theft of Motor Vehicle Parts/Accessories</t>
-  </si>
-  <si>
-    <t>All Other Larceny</t>
-  </si>
-  <si>
-    <t>Total Larceny</t>
-  </si>
-  <si>
-    <t>Motor Vehicle Theft</t>
-  </si>
-  <si>
-    <t>Robbery</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL</t>
-  </si>
-  <si>
-    <t>$200 and Over</t>
-  </si>
-  <si>
-    <t>$50 to $200</t>
-  </si>
-  <si>
-    <t>Under $50</t>
-  </si>
-  <si>
-    <t>TOTAL LARCENY/THEFT</t>
   </si>
 </sst>
 </file>
@@ -367,19 +364,555 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="38.14"/>
+    <col min="3" customWidth="1" max="3" width="19.71"/>
+    <col min="4" customWidth="1" max="4" width="38.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="1" r="A1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="1" r="A2">
+        <v>29</v>
+      </c>
+      <c s="2" r="D2">
+        <v>12150.0</v>
+      </c>
+      <c s="2" r="E2">
+        <v>1717.0</v>
+      </c>
+      <c s="2" r="G2">
+        <v>43089.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="1" r="A3">
+        <v>31</v>
+      </c>
+      <c s="1" r="D3">
+        <v>8.0</v>
+      </c>
+      <c s="2" r="E3">
+        <v>5317.0</v>
+      </c>
+      <c s="2" r="G3">
+        <v>65965.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="1" r="A4">
+        <v>32</v>
+      </c>
+      <c s="2" r="B4">
+        <v>12000.0</v>
+      </c>
+      <c s="2" r="D4">
+        <v>3052.0</v>
+      </c>
+      <c s="2" r="E4">
+        <v>2.8349135E7</v>
+      </c>
+      <c s="2" r="G4">
+        <v>4.512828E7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="1" r="A5">
+        <v>34</v>
+      </c>
+      <c s="1" r="D5">
+        <v>100.0</v>
+      </c>
+      <c s="2" r="E5">
+        <v>138018.0</v>
+      </c>
+      <c s="2" r="G5">
+        <v>964145.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="1" r="A6">
+        <v>37</v>
+      </c>
+      <c s="2" r="E6">
+        <v>29000.0</v>
+      </c>
+      <c s="2" r="G6">
+        <v>42042.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="1" r="A7">
+        <v>39</v>
+      </c>
+      <c s="1" r="D7">
+        <v>50.0</v>
+      </c>
+      <c s="2" r="E7">
+        <v>225296.0</v>
+      </c>
+      <c s="2" r="G7">
+        <v>1352920.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="1" r="A8">
+        <v>41</v>
+      </c>
+      <c s="1" r="D8">
+        <v>410.0</v>
+      </c>
+      <c s="2" r="E8">
+        <v>210101.0</v>
+      </c>
+      <c s="2" r="G8">
+        <v>3317545.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="1" r="A9">
+        <v>43</v>
+      </c>
+      <c s="2" r="E9">
+        <v>76832.0</v>
+      </c>
+      <c s="2" r="G9">
+        <v>543520.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="1" r="A10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" s="1" r="A11">
+        <v>46</v>
+      </c>
+      <c s="2" r="E11">
+        <v>3465.0</v>
+      </c>
+      <c s="2" r="G11">
+        <v>98572.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" s="1" r="A12">
+        <v>48</v>
+      </c>
+      <c s="1" r="E12">
+        <v>982.0</v>
+      </c>
+      <c s="2" r="G12">
+        <v>3352.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="s" s="1" r="A13">
+        <v>49</v>
+      </c>
+      <c s="2" r="E13">
+        <v>189130.0</v>
+      </c>
+      <c s="2" r="G13">
+        <v>651440.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="s" s="1" r="A14">
+        <v>51</v>
+      </c>
+      <c s="2" r="E14">
+        <v>179915.0</v>
+      </c>
+      <c s="2" r="G14">
+        <v>1657910.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="s" s="1" r="A15">
+        <v>53</v>
+      </c>
+      <c s="1" r="E15">
+        <v>104.0</v>
+      </c>
+      <c s="2" r="G15">
+        <v>2510.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="s" s="1" r="A16">
+        <v>55</v>
+      </c>
+      <c s="2" r="E16">
+        <v>192822.0</v>
+      </c>
+      <c s="2" r="G16">
+        <v>1586530.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" s="1" r="A17">
+        <v>57</v>
+      </c>
+      <c s="2" r="D17">
+        <v>10872.0</v>
+      </c>
+      <c s="2" r="E17">
+        <v>139788.0</v>
+      </c>
+      <c s="2" r="G17">
+        <v>2324677.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" s="1" r="A18">
+        <v>58</v>
+      </c>
+      <c s="2" r="E18">
+        <v>706293.0</v>
+      </c>
+      <c s="2" r="G18">
+        <v>8589936.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c t="s" s="1" r="A19">
+        <v>60</v>
+      </c>
+      <c s="2" r="E19">
+        <v>21928.0</v>
+      </c>
+      <c s="2" r="G19">
+        <v>179637.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c t="s" s="1" r="A20">
+        <v>62</v>
+      </c>
+      <c s="1" r="D20">
+        <v>500.0</v>
+      </c>
+      <c s="2" r="E20">
+        <v>310755.0</v>
+      </c>
+      <c s="2" r="G20">
+        <v>1492254.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c t="s" s="1" r="A21">
+        <v>63</v>
+      </c>
+      <c s="1" r="C21">
+        <v>100.0</v>
+      </c>
+      <c s="2" r="E21">
+        <v>315951.0</v>
+      </c>
+      <c s="2" r="G21">
+        <v>8040949.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c t="s" s="1" r="A22">
+        <v>65</v>
+      </c>
+      <c s="2" r="C22">
+        <v>3450.0</v>
+      </c>
+      <c s="2" r="E22">
+        <v>136487.0</v>
+      </c>
+      <c s="1" r="F22">
+        <v>581.0</v>
+      </c>
+      <c s="2" r="G22">
+        <v>3847725.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c t="s" s="1" r="A23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c t="s" s="1" r="A24">
+        <v>68</v>
+      </c>
+      <c s="2" r="D24">
+        <v>1850.0</v>
+      </c>
+      <c s="2" r="E24">
+        <v>29474.0</v>
+      </c>
+      <c s="2" r="G24">
+        <v>629893.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c t="s" s="1" r="A25">
+        <v>70</v>
+      </c>
+      <c s="1" r="D25">
+        <v>250.0</v>
+      </c>
+      <c s="2" r="E25">
+        <v>1039310.0</v>
+      </c>
+      <c s="2" r="G25">
+        <v>2895686.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c t="s" s="1" r="A26">
+        <v>71</v>
+      </c>
+      <c s="2" r="E26">
+        <v>28521.0</v>
+      </c>
+      <c s="2" r="G26">
+        <v>310451.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c t="s" s="1" r="A27">
+        <v>72</v>
+      </c>
+      <c s="2" r="D27">
+        <v>1616.0</v>
+      </c>
+      <c s="2" r="E27">
+        <v>359662.0</v>
+      </c>
+      <c s="2" r="G27">
+        <v>5398880.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c t="s" s="1" r="A28">
+        <v>73</v>
+      </c>
+      <c s="2" r="D28">
+        <v>1585.0</v>
+      </c>
+      <c s="2" r="E28">
+        <v>99715.0</v>
+      </c>
+      <c s="2" r="G28">
+        <v>2203508.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c t="s" s="1" r="A29">
+        <v>74</v>
+      </c>
+      <c s="2" r="E29">
+        <v>208799.0</v>
+      </c>
+      <c s="2" r="G29">
+        <v>535139.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c t="s" s="1" r="A30">
+        <v>75</v>
+      </c>
+      <c s="1" r="B30">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="D30">
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c t="s" s="1" r="A31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32">
+      <c t="s" s="1" r="A32">
+        <v>77</v>
+      </c>
+      <c s="1" r="D32">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c t="s" s="1" r="A33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c t="s" s="1" r="A34">
+        <v>80</v>
+      </c>
+      <c s="1" r="D34">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c t="s" s="1" r="A35">
+        <v>82</v>
+      </c>
+      <c s="2" r="G35">
+        <v>2951.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c t="s" s="1" r="A36">
+        <v>83</v>
+      </c>
+      <c s="2" r="G36">
+        <v>56550.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c t="s" s="1" r="A37">
+        <v>85</v>
+      </c>
+      <c s="2" r="D37">
+        <v>6622.0</v>
+      </c>
+      <c s="2" r="E37">
+        <v>537914.0</v>
+      </c>
+      <c s="2" r="G37">
+        <v>7230584.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c t="s" s="1" r="A38">
+        <v>86</v>
+      </c>
+      <c s="2" r="E38">
+        <v>3268295.0</v>
+      </c>
+      <c s="2" r="G38">
+        <v>5681515.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c t="s" s="1" r="A39">
+        <v>88</v>
+      </c>
+      <c s="2" r="D39">
+        <v>40090.0</v>
+      </c>
+      <c s="2" r="E39">
+        <v>168348.0</v>
+      </c>
+      <c s="2" r="G39">
+        <v>4515325.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c t="s" s="1" r="A40">
+        <v>90</v>
+      </c>
+      <c s="2" r="E40">
+        <v>43793.0</v>
+      </c>
+      <c s="2" r="G40">
+        <v>400401.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c t="s" s="1" r="A41">
+        <v>92</v>
+      </c>
+      <c s="1" r="B41">
+        <v>500.0</v>
+      </c>
+      <c s="1" r="C41">
+        <v>3824.0</v>
+      </c>
+      <c s="2" r="D41">
+        <v>43742.0</v>
+      </c>
+      <c s="2" r="E41">
+        <v>1217346.0</v>
+      </c>
+      <c s="1" r="F41">
+        <v>1.0</v>
+      </c>
+      <c s="2" r="G41">
+        <v>1.2543669E7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c t="s" s="1" r="A42">
+        <v>94</v>
+      </c>
+      <c t="s" s="1" r="B42">
+        <v>95</v>
+      </c>
+      <c s="3" r="C42">
+        <v>7374.0</v>
+      </c>
+      <c s="3" r="D42">
+        <v>124222.0</v>
+      </c>
+      <c s="3" r="E42">
+        <v>3.8234213E7</v>
+      </c>
+      <c s="3" r="F42">
+        <v>582.0</v>
+      </c>
+      <c s="3" r="G42">
+        <v>1.2233755E8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c s="1" r="A43"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -627,544 +1160,6 @@
       </c>
       <c s="3" r="E14">
         <v>5.1251361E7</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="38.14"/>
-    <col min="3" customWidth="1" max="3" width="19.71"/>
-    <col min="4" customWidth="1" max="4" width="38.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
-        <v>18</v>
-      </c>
-      <c t="s" s="1" r="B1">
-        <v>19</v>
-      </c>
-      <c t="s" s="1" r="C1">
-        <v>20</v>
-      </c>
-      <c t="s" s="1" r="D1">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="E1">
-        <v>22</v>
-      </c>
-      <c t="s" s="1" r="F1">
-        <v>23</v>
-      </c>
-      <c t="s" s="1" r="G1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>25</v>
-      </c>
-      <c s="2" r="D2">
-        <v>12150.0</v>
-      </c>
-      <c s="2" r="E2">
-        <v>1717.0</v>
-      </c>
-      <c s="2" r="G2">
-        <v>43089.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="1" r="A3">
-        <v>26</v>
-      </c>
-      <c s="1" r="D3">
-        <v>8.0</v>
-      </c>
-      <c s="2" r="E3">
-        <v>5317.0</v>
-      </c>
-      <c s="2" r="G3">
-        <v>65965.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="1" r="A4">
-        <v>27</v>
-      </c>
-      <c s="2" r="B4">
-        <v>12000.0</v>
-      </c>
-      <c s="2" r="D4">
-        <v>3052.0</v>
-      </c>
-      <c s="2" r="E4">
-        <v>2.8349135E7</v>
-      </c>
-      <c s="2" r="G4">
-        <v>4.512828E7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="1" r="A5">
-        <v>28</v>
-      </c>
-      <c s="1" r="D5">
-        <v>100.0</v>
-      </c>
-      <c s="2" r="E5">
-        <v>138018.0</v>
-      </c>
-      <c s="2" r="G5">
-        <v>964145.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="1" r="A6">
-        <v>29</v>
-      </c>
-      <c s="2" r="E6">
-        <v>29000.0</v>
-      </c>
-      <c s="2" r="G6">
-        <v>42042.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="1" r="A7">
-        <v>30</v>
-      </c>
-      <c s="1" r="D7">
-        <v>50.0</v>
-      </c>
-      <c s="2" r="E7">
-        <v>225296.0</v>
-      </c>
-      <c s="2" r="G7">
-        <v>1352920.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="1" r="A8">
-        <v>31</v>
-      </c>
-      <c s="1" r="D8">
-        <v>410.0</v>
-      </c>
-      <c s="2" r="E8">
-        <v>210101.0</v>
-      </c>
-      <c s="2" r="G8">
-        <v>3317545.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="1" r="A9">
-        <v>32</v>
-      </c>
-      <c s="2" r="E9">
-        <v>76832.0</v>
-      </c>
-      <c s="2" r="G9">
-        <v>543520.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="1" r="A10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="1" r="A11">
-        <v>34</v>
-      </c>
-      <c s="2" r="E11">
-        <v>3465.0</v>
-      </c>
-      <c s="2" r="G11">
-        <v>98572.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="s" s="1" r="A12">
-        <v>35</v>
-      </c>
-      <c s="1" r="E12">
-        <v>982.0</v>
-      </c>
-      <c s="2" r="G12">
-        <v>3352.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="s" s="1" r="A13">
-        <v>36</v>
-      </c>
-      <c s="2" r="E13">
-        <v>189130.0</v>
-      </c>
-      <c s="2" r="G13">
-        <v>651440.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="s" s="1" r="A14">
-        <v>37</v>
-      </c>
-      <c s="2" r="E14">
-        <v>179915.0</v>
-      </c>
-      <c s="2" r="G14">
-        <v>1657910.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="s" s="1" r="A15">
-        <v>38</v>
-      </c>
-      <c s="1" r="E15">
-        <v>104.0</v>
-      </c>
-      <c s="2" r="G15">
-        <v>2510.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="s" s="1" r="A16">
-        <v>39</v>
-      </c>
-      <c s="2" r="E16">
-        <v>192822.0</v>
-      </c>
-      <c s="2" r="G16">
-        <v>1586530.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="s" s="1" r="A17">
-        <v>40</v>
-      </c>
-      <c s="2" r="D17">
-        <v>10872.0</v>
-      </c>
-      <c s="2" r="E17">
-        <v>139788.0</v>
-      </c>
-      <c s="2" r="G17">
-        <v>2324677.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="s" s="1" r="A18">
-        <v>41</v>
-      </c>
-      <c s="2" r="E18">
-        <v>706293.0</v>
-      </c>
-      <c s="2" r="G18">
-        <v>8589936.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c t="s" s="1" r="A19">
-        <v>42</v>
-      </c>
-      <c s="2" r="E19">
-        <v>21928.0</v>
-      </c>
-      <c s="2" r="G19">
-        <v>179637.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c t="s" s="1" r="A20">
-        <v>43</v>
-      </c>
-      <c s="1" r="D20">
-        <v>500.0</v>
-      </c>
-      <c s="2" r="E20">
-        <v>310755.0</v>
-      </c>
-      <c s="2" r="G20">
-        <v>1492254.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c t="s" s="1" r="A21">
-        <v>44</v>
-      </c>
-      <c s="1" r="C21">
-        <v>100.0</v>
-      </c>
-      <c s="2" r="E21">
-        <v>315951.0</v>
-      </c>
-      <c s="2" r="G21">
-        <v>8040949.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c t="s" s="1" r="A22">
-        <v>45</v>
-      </c>
-      <c s="2" r="C22">
-        <v>3450.0</v>
-      </c>
-      <c s="2" r="E22">
-        <v>136487.0</v>
-      </c>
-      <c s="1" r="F22">
-        <v>581.0</v>
-      </c>
-      <c s="2" r="G22">
-        <v>3847725.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c t="s" s="1" r="A23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24">
-      <c t="s" s="1" r="A24">
-        <v>47</v>
-      </c>
-      <c s="2" r="D24">
-        <v>1850.0</v>
-      </c>
-      <c s="2" r="E24">
-        <v>29474.0</v>
-      </c>
-      <c s="2" r="G24">
-        <v>629893.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c t="s" s="1" r="A25">
-        <v>48</v>
-      </c>
-      <c s="1" r="D25">
-        <v>250.0</v>
-      </c>
-      <c s="2" r="E25">
-        <v>1039310.0</v>
-      </c>
-      <c s="2" r="G25">
-        <v>2895686.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c t="s" s="1" r="A26">
-        <v>49</v>
-      </c>
-      <c s="2" r="E26">
-        <v>28521.0</v>
-      </c>
-      <c s="2" r="G26">
-        <v>310451.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c t="s" s="1" r="A27">
-        <v>50</v>
-      </c>
-      <c s="2" r="D27">
-        <v>1616.0</v>
-      </c>
-      <c s="2" r="E27">
-        <v>359662.0</v>
-      </c>
-      <c s="2" r="G27">
-        <v>5398880.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c t="s" s="1" r="A28">
-        <v>51</v>
-      </c>
-      <c s="2" r="D28">
-        <v>1585.0</v>
-      </c>
-      <c s="2" r="E28">
-        <v>99715.0</v>
-      </c>
-      <c s="2" r="G28">
-        <v>2203508.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c t="s" s="1" r="A29">
-        <v>52</v>
-      </c>
-      <c s="2" r="E29">
-        <v>208799.0</v>
-      </c>
-      <c s="2" r="G29">
-        <v>535139.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c t="s" s="1" r="A30">
-        <v>53</v>
-      </c>
-      <c s="1" r="B30">
-        <v>2.0</v>
-      </c>
-      <c s="1" r="D30">
-        <v>850.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c t="s" s="1" r="A31">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32">
-      <c t="s" s="1" r="A32">
-        <v>55</v>
-      </c>
-      <c s="1" r="D32">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c t="s" s="1" r="A33">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34">
-      <c t="s" s="1" r="A34">
-        <v>57</v>
-      </c>
-      <c s="1" r="D34">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c t="s" s="1" r="A35">
-        <v>58</v>
-      </c>
-      <c s="2" r="G35">
-        <v>2951.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c t="s" s="1" r="A36">
-        <v>59</v>
-      </c>
-      <c s="2" r="G36">
-        <v>56550.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c t="s" s="1" r="A37">
-        <v>60</v>
-      </c>
-      <c s="2" r="D37">
-        <v>6622.0</v>
-      </c>
-      <c s="2" r="E37">
-        <v>537914.0</v>
-      </c>
-      <c s="2" r="G37">
-        <v>7230584.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c t="s" s="1" r="A38">
-        <v>61</v>
-      </c>
-      <c s="2" r="E38">
-        <v>3268295.0</v>
-      </c>
-      <c s="2" r="G38">
-        <v>5681515.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c t="s" s="1" r="A39">
-        <v>62</v>
-      </c>
-      <c s="2" r="D39">
-        <v>40090.0</v>
-      </c>
-      <c s="2" r="E39">
-        <v>168348.0</v>
-      </c>
-      <c s="2" r="G39">
-        <v>4515325.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c t="s" s="1" r="A40">
-        <v>63</v>
-      </c>
-      <c s="2" r="E40">
-        <v>43793.0</v>
-      </c>
-      <c s="2" r="G40">
-        <v>400401.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c t="s" s="1" r="A41">
-        <v>64</v>
-      </c>
-      <c s="1" r="B41">
-        <v>500.0</v>
-      </c>
-      <c s="1" r="C41">
-        <v>3824.0</v>
-      </c>
-      <c s="2" r="D41">
-        <v>43742.0</v>
-      </c>
-      <c s="2" r="E41">
-        <v>1217346.0</v>
-      </c>
-      <c s="1" r="F41">
-        <v>1.0</v>
-      </c>
-      <c s="2" r="G41">
-        <v>1.2543669E7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c t="s" s="1" r="A42">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="B42">
-        <v>66</v>
-      </c>
-      <c s="3" r="C42">
-        <v>7374.0</v>
-      </c>
-      <c s="3" r="D42">
-        <v>124222.0</v>
-      </c>
-      <c s="3" r="E42">
-        <v>3.8234213E7</v>
-      </c>
-      <c s="3" r="F42">
-        <v>582.0</v>
-      </c>
-      <c s="3" r="G42">
-        <v>1.2233755E8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c t="s" s="1" r="A43">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1185,18 +1180,18 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c s="1" r="B2">
         <v>3.0</v>
@@ -1207,7 +1202,7 @@
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c s="1" r="B3">
         <v>1367.0</v>
@@ -1218,7 +1213,7 @@
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c s="1" r="B4">
         <v>34.0</v>
@@ -1229,7 +1224,7 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c s="1" r="B5">
         <v>2972.0</v>
@@ -1240,7 +1235,7 @@
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c s="1" r="B6">
         <v>1039.0</v>
@@ -1251,7 +1246,7 @@
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c s="1" r="B7">
         <v>157.0</v>
@@ -1262,7 +1257,7 @@
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c s="1" r="B8">
         <v>25.0</v>
@@ -1273,7 +1268,7 @@
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c s="1" r="B9">
         <v>45.0</v>
@@ -1284,7 +1279,7 @@
     </row>
     <row r="10">
       <c t="s" s="1" r="A10">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c s="1" r="B10">
         <v>4238.0</v>
@@ -1295,7 +1290,7 @@
     </row>
     <row r="11">
       <c t="s" s="1" r="A11">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c s="1" r="B11">
         <v>81.0</v>
@@ -1306,7 +1301,7 @@
     </row>
     <row r="12">
       <c t="s" s="1" r="A12">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c s="1" r="B12">
         <v>236.0</v>
@@ -1317,7 +1312,7 @@
     </row>
     <row r="13">
       <c t="s" s="1" r="A13">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c s="1" r="B13">
         <v>336.0</v>
@@ -1328,7 +1323,7 @@
     </row>
     <row r="14">
       <c t="s" s="1" r="A14">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c s="1" r="B14">
         <v>11055.0</v>
@@ -1339,7 +1334,7 @@
     </row>
     <row r="15">
       <c t="s" s="1" r="A15">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c s="1" r="B15">
         <v>21707.0</v>
@@ -1350,7 +1345,7 @@
     </row>
     <row r="16">
       <c t="s" s="1" r="A16">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c s="1" r="B16">
         <v>661.0</v>
@@ -1361,7 +1356,7 @@
     </row>
     <row r="17">
       <c t="s" s="1" r="A17">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c s="1" r="B17">
         <v>30402.0</v>
@@ -1372,7 +1367,7 @@
     </row>
     <row r="18">
       <c t="s" s="1" r="A18">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c s="1" r="B18">
         <v>3789.0</v>
@@ -1383,7 +1378,7 @@
     </row>
     <row r="19">
       <c t="s" s="1" r="A19">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c s="1" r="B19">
         <v>57695.0</v>
@@ -1394,7 +1389,7 @@
     </row>
     <row r="20">
       <c t="s" s="1" r="A20">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c s="1" r="B20">
         <v>125881.0</v>
@@ -1405,7 +1400,7 @@
     </row>
     <row r="21">
       <c t="s" s="1" r="A21">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c s="1" r="B21">
         <v>8315.0</v>
@@ -1416,7 +1411,7 @@
     </row>
     <row r="22">
       <c t="s" s="1" r="A22">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c s="1" r="B22">
         <v>3609.0</v>
@@ -1427,7 +1422,7 @@
     </row>
     <row r="23">
       <c t="s" s="1" r="A23">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c s="1" r="B23">
         <v>143528.0</v>
@@ -1438,7 +1433,7 @@
     </row>
     <row r="24">
       <c t="s" s="1" r="A24">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c s="1" r="B24">
         <v>45143.0</v>
@@ -1449,7 +1444,7 @@
     </row>
     <row r="25">
       <c t="s" s="1" r="A25">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c s="1" r="B25">
         <v>31082.0</v>
@@ -1460,7 +1455,7 @@
     </row>
     <row r="26">
       <c t="s" s="1" r="A26">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c s="1" r="B26">
         <v>49656.0</v>
@@ -1471,7 +1466,7 @@
     </row>
     <row r="27">
       <c t="s" s="1" r="A27">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c s="1" r="B27">
         <v>125881.0</v>
